--- a/SchedulingData/dynamic11/pso/scheduling2_1.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>243.82</v>
+        <v>244.14</v>
       </c>
       <c r="D2" t="n">
-        <v>301.04</v>
+        <v>296.54</v>
       </c>
       <c r="E2" t="n">
-        <v>11.536</v>
+        <v>12.476</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>219.02</v>
+        <v>296.54</v>
       </c>
       <c r="D3" t="n">
-        <v>265.18</v>
+        <v>340.34</v>
       </c>
       <c r="E3" t="n">
-        <v>12.192</v>
+        <v>9.236000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>265.18</v>
+        <v>265.64</v>
       </c>
       <c r="D4" t="n">
-        <v>323.94</v>
+        <v>315.7</v>
       </c>
       <c r="E4" t="n">
-        <v>9.436</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="5">
@@ -523,74 +523,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>214.18</v>
+        <v>315.7</v>
       </c>
       <c r="D5" t="n">
-        <v>277.98</v>
+        <v>363.68</v>
       </c>
       <c r="E5" t="n">
-        <v>9.912000000000001</v>
+        <v>7.052</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>244.92</v>
+        <v>253.68</v>
       </c>
       <c r="D6" t="n">
-        <v>307.04</v>
+        <v>298.48</v>
       </c>
       <c r="E6" t="n">
-        <v>10.936</v>
+        <v>9.811999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>307.04</v>
+        <v>220.96</v>
       </c>
       <c r="D7" t="n">
-        <v>347.64</v>
+        <v>275.76</v>
       </c>
       <c r="E7" t="n">
-        <v>8.516</v>
+        <v>12.564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>347.64</v>
+        <v>363.68</v>
       </c>
       <c r="D8" t="n">
-        <v>392.7</v>
+        <v>437.56</v>
       </c>
       <c r="E8" t="n">
-        <v>6.14</v>
+        <v>4.244</v>
       </c>
     </row>
     <row r="9">
@@ -599,74 +599,74 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>323.94</v>
+        <v>257.74</v>
       </c>
       <c r="D9" t="n">
-        <v>362.58</v>
+        <v>297.64</v>
       </c>
       <c r="E9" t="n">
-        <v>7.192</v>
+        <v>9.036</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>236.64</v>
+        <v>298.48</v>
       </c>
       <c r="D10" t="n">
-        <v>278.28</v>
+        <v>354.5</v>
       </c>
       <c r="E10" t="n">
-        <v>13.352</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>277.98</v>
+        <v>275.76</v>
       </c>
       <c r="D11" t="n">
-        <v>337.38</v>
+        <v>330.04</v>
       </c>
       <c r="E11" t="n">
-        <v>6.612</v>
+        <v>9.756</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>278.28</v>
+        <v>297.64</v>
       </c>
       <c r="D12" t="n">
-        <v>355.18</v>
+        <v>339.76</v>
       </c>
       <c r="E12" t="n">
-        <v>10.272</v>
+        <v>6.444</v>
       </c>
     </row>
     <row r="13">
@@ -675,93 +675,93 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>362.58</v>
+        <v>339.76</v>
       </c>
       <c r="D13" t="n">
-        <v>416.76</v>
+        <v>387.46</v>
       </c>
       <c r="E13" t="n">
-        <v>4.904</v>
+        <v>4.284</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>337.38</v>
+        <v>330.04</v>
       </c>
       <c r="D14" t="n">
-        <v>404.08</v>
+        <v>369.42</v>
       </c>
       <c r="E14" t="n">
-        <v>3.532</v>
+        <v>6.948</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>416.76</v>
+        <v>245.62</v>
       </c>
       <c r="D15" t="n">
-        <v>461.04</v>
+        <v>291.34</v>
       </c>
       <c r="E15" t="n">
-        <v>2.096</v>
+        <v>12.036</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>222.92</v>
+        <v>437.56</v>
       </c>
       <c r="D16" t="n">
-        <v>267.92</v>
+        <v>469.66</v>
       </c>
       <c r="E16" t="n">
-        <v>12.868</v>
+        <v>2.164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>404.08</v>
+        <v>354.5</v>
       </c>
       <c r="D17" t="n">
-        <v>451.3</v>
+        <v>392.2</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9399999999999999</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="18">
@@ -770,14 +770,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>451.3</v>
+        <v>469.66</v>
       </c>
       <c r="D18" t="n">
-        <v>555.72</v>
+        <v>537.23</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
@@ -785,78 +785,78 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>355.18</v>
+        <v>537.23</v>
       </c>
       <c r="D19" t="n">
-        <v>423.94</v>
+        <v>589.9299999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>7.516</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>423.94</v>
+        <v>392.2</v>
       </c>
       <c r="D20" t="n">
-        <v>473.24</v>
+        <v>444.12</v>
       </c>
       <c r="E20" t="n">
-        <v>4.216</v>
+        <v>1.108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>267.92</v>
+        <v>444.12</v>
       </c>
       <c r="D21" t="n">
-        <v>302.98</v>
+        <v>523.7</v>
       </c>
       <c r="E21" t="n">
-        <v>10.492</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>555.72</v>
+        <v>291.34</v>
       </c>
       <c r="D22" t="n">
-        <v>601.12</v>
+        <v>349.84</v>
       </c>
       <c r="E22" t="n">
-        <v>27.14</v>
+        <v>8.795999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -865,93 +865,93 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>392.7</v>
+        <v>349.84</v>
       </c>
       <c r="D23" t="n">
-        <v>442.76</v>
+        <v>423.1</v>
       </c>
       <c r="E23" t="n">
-        <v>3.764</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>601.12</v>
+        <v>369.42</v>
       </c>
       <c r="D24" t="n">
-        <v>638.4400000000001</v>
+        <v>428.72</v>
       </c>
       <c r="E24" t="n">
-        <v>24.548</v>
+        <v>3.648</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>473.24</v>
+        <v>523.7</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3200000000001</v>
+        <v>589.5</v>
       </c>
       <c r="E25" t="n">
-        <v>1.408</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>527.3200000000001</v>
+        <v>387.46</v>
       </c>
       <c r="D26" t="n">
-        <v>591.5</v>
+        <v>446.1</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>301.04</v>
+        <v>423.1</v>
       </c>
       <c r="D27" t="n">
-        <v>356.66</v>
+        <v>472.96</v>
       </c>
       <c r="E27" t="n">
-        <v>8.103999999999999</v>
+        <v>3.664</v>
       </c>
     </row>
     <row r="28">
@@ -960,169 +960,169 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>638.4400000000001</v>
+        <v>589.9299999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>702.8200000000001</v>
+        <v>658.13</v>
       </c>
       <c r="E28" t="n">
-        <v>21.74</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>442.76</v>
+        <v>340.34</v>
       </c>
       <c r="D29" t="n">
-        <v>484.66</v>
+        <v>417.74</v>
       </c>
       <c r="E29" t="n">
-        <v>1.684</v>
+        <v>7.076</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>484.66</v>
+        <v>417.74</v>
       </c>
       <c r="D30" t="n">
-        <v>592.59</v>
+        <v>465.06</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>4.484</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>461.04</v>
+        <v>465.06</v>
       </c>
       <c r="D31" t="n">
-        <v>548.45</v>
+        <v>524.24</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>2.196</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>548.45</v>
+        <v>472.96</v>
       </c>
       <c r="D32" t="n">
-        <v>586.55</v>
+        <v>504.8</v>
       </c>
       <c r="E32" t="n">
-        <v>27.88</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>356.66</v>
+        <v>504.8</v>
       </c>
       <c r="D33" t="n">
-        <v>404.16</v>
+        <v>594.16</v>
       </c>
       <c r="E33" t="n">
-        <v>5.464</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>592.59</v>
+        <v>446.1</v>
       </c>
       <c r="D34" t="n">
-        <v>660.49</v>
+        <v>533.52</v>
       </c>
       <c r="E34" t="n">
-        <v>27.84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>302.98</v>
+        <v>533.52</v>
       </c>
       <c r="D35" t="n">
-        <v>346.78</v>
+        <v>601.28</v>
       </c>
       <c r="E35" t="n">
-        <v>7.252</v>
+        <v>26.864</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>591.5</v>
+        <v>589.5</v>
       </c>
       <c r="D36" t="n">
-        <v>624.2</v>
+        <v>653.36</v>
       </c>
       <c r="E36" t="n">
-        <v>27.92</v>
+        <v>24.824</v>
       </c>
     </row>
     <row r="37">
@@ -1131,17 +1131,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>586.55</v>
+        <v>601.28</v>
       </c>
       <c r="D37" t="n">
-        <v>648.8099999999999</v>
+        <v>651.14</v>
       </c>
       <c r="E37" t="n">
-        <v>24.744</v>
+        <v>24.488</v>
       </c>
     </row>
     <row r="38">
@@ -1150,74 +1150,55 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>660.49</v>
+        <v>594.16</v>
       </c>
       <c r="D38" t="n">
-        <v>693.49</v>
+        <v>666.26</v>
       </c>
       <c r="E38" t="n">
-        <v>25.68</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>346.78</v>
+        <v>428.72</v>
       </c>
       <c r="D39" t="n">
-        <v>439.98</v>
+        <v>475.72</v>
       </c>
       <c r="E39" t="n">
-        <v>4.012</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>404.16</v>
+        <v>475.72</v>
       </c>
       <c r="D40" t="n">
-        <v>482.36</v>
+        <v>570.98</v>
       </c>
       <c r="E40" t="n">
-        <v>2.224</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>pond18</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>648.8099999999999</v>
-      </c>
-      <c r="D41" t="n">
-        <v>693.8099999999999</v>
-      </c>
-      <c r="E41" t="n">
-        <v>21.884</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
